--- a/SuppXLS/Scen_B_TRA_Emissions.xlsx
+++ b/SuppXLS/Scen_B_TRA_Emissions.xlsx
@@ -1,38 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21B873-E5E2-4DEB-9275-B1CD5AA6096C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4B682-9CCE-4351-A9A5-C238534FA57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="INS" sheetId="2" r:id="rId2"/>
-    <sheet name="UPD" sheetId="11" r:id="rId3"/>
+    <sheet name="Cover" sheetId="16" r:id="rId1"/>
+    <sheet name="Regions" sheetId="15" r:id="rId2"/>
+    <sheet name="INS" sheetId="2" r:id="rId3"/>
+    <sheet name="UPD" sheetId="11" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -133,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -421,12 +488,63 @@
   <si>
     <t>*National</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +598,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +691,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,10 +781,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -612,9 +814,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{23C7C2C6-86E1-4FD2-A380-D25D33A53914}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,6 +892,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A0E151-2A0B-4B29-88B1-144E13DB18A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE557259-A072-4485-9B95-D0557B045367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EEEB564-E181-48E0-ADA0-16C3CAB4D7BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BC526A-E3E4-469A-A01C-7EF2BD2D8B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6F15E1-FDB8-453B-945B-2CEC74BC55EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4B6414-71E7-4AFE-AD37-48EB87BA29C0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -694,6 +1261,19 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,6 +1596,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8055F6A0-D2D6-4192-A4C2-30BCAA062016}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="14" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="14" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="10" style="14" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{1171F531-9169-4741-AD5F-5AE7EB2A7D59}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{6E64AEA5-15B4-4501-82AE-5C1D4A10E5E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
@@ -1810,12 +5241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -2652,7 +6083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ3"/>

--- a/SuppXLS/Scen_B_TRA_Emissions.xlsx
+++ b/SuppXLS/Scen_B_TRA_Emissions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4B682-9CCE-4351-A9A5-C238534FA57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916BB03-4BAD-44FC-88DA-AB5E6A5EA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="INS" sheetId="2" r:id="rId3"/>
     <sheet name="UPD" sheetId="11" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -200,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -495,27 +492,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -535,6 +520,21 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Scenario file</t>
+  </si>
+  <si>
+    <t>Transport (TRA)</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olexandr Balyk ( MaREI, olexandr.balyk@ucc.ie) </t>
+  </si>
+  <si>
+    <t>Emissions factors for fuel combustion</t>
   </si>
 </sst>
 </file>
@@ -820,9 +820,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +838,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,14 +850,20 @@
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,7 +1213,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1225,7 +1225,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1261,19 +1261,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,25 +1587,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="14" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="14" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="14" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="14" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="14" customWidth="1"/>
     <col min="13" max="13" width="10" style="14" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="14"/>
+    <col min="14" max="14" width="11.44140625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1646,7 +1633,7 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1674,7 +1661,7 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1702,7 +1689,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1730,7 +1717,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1758,7 +1745,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1786,7 +1773,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1814,7 +1801,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1842,7 +1829,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1870,7 +1857,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1898,7 +1885,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1926,7 +1913,7 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1954,7 +1941,7 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1982,7 +1969,7 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2010,7 +1997,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2038,21 +2025,21 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -2068,11 +2055,11 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2096,19 +2083,19 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2124,23 +2111,23 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="B19" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -2156,23 +2143,23 @@
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
@@ -2188,23 +2175,23 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
@@ -2220,19 +2207,19 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
@@ -2248,15 +2235,15 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -2280,11 +2267,11 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2308,11 +2295,11 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -2336,15 +2323,15 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2368,11 +2355,13 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -2396,11 +2385,11 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -2424,15 +2413,15 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="29">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -2456,17 +2445,17 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2488,17 +2477,17 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -2520,13 +2509,13 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2550,7 +2539,7 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2578,7 +2567,7 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -2606,7 +2595,7 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2634,7 +2623,7 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2662,7 +2651,7 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2690,7 +2679,7 @@
       <c r="Y37" s="17"/>
       <c r="Z37" s="17"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2718,7 +2707,7 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -2746,7 +2735,7 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -2774,7 +2763,7 @@
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2802,7 +2791,7 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -2830,7 +2819,7 @@
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -2858,7 +2847,7 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2886,7 +2875,7 @@
       <c r="Y44" s="17"/>
       <c r="Z44" s="17"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2914,7 +2903,7 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2942,7 +2931,7 @@
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -2970,7 +2959,7 @@
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -2998,7 +2987,7 @@
       <c r="Y48" s="17"/>
       <c r="Z48" s="17"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -3026,7 +3015,7 @@
       <c r="Y49" s="17"/>
       <c r="Z49" s="17"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3054,7 +3043,7 @@
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -3082,7 +3071,7 @@
       <c r="Y51" s="17"/>
       <c r="Z51" s="17"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -3110,7 +3099,7 @@
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -3138,7 +3127,7 @@
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -3166,7 +3155,7 @@
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -3194,7 +3183,7 @@
       <c r="Y55" s="17"/>
       <c r="Z55" s="17"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -3222,7 +3211,7 @@
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -3250,7 +3239,7 @@
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3278,7 +3267,7 @@
       <c r="Y58" s="17"/>
       <c r="Z58" s="17"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -3306,7 +3295,7 @@
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -3334,7 +3323,7 @@
       <c r="Y60" s="17"/>
       <c r="Z60" s="17"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -3362,7 +3351,7 @@
       <c r="Y61" s="17"/>
       <c r="Z61" s="17"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -3390,7 +3379,7 @@
       <c r="Y62" s="17"/>
       <c r="Z62" s="17"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -3418,7 +3407,7 @@
       <c r="Y63" s="17"/>
       <c r="Z63" s="17"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -3446,7 +3435,7 @@
       <c r="Y64" s="17"/>
       <c r="Z64" s="17"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -3474,7 +3463,7 @@
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -3502,7 +3491,7 @@
       <c r="Y66" s="17"/>
       <c r="Z66" s="17"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -3530,7 +3519,7 @@
       <c r="Y67" s="17"/>
       <c r="Z67" s="17"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -3558,7 +3547,7 @@
       <c r="Y68" s="17"/>
       <c r="Z68" s="17"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -3586,7 +3575,7 @@
       <c r="Y69" s="17"/>
       <c r="Z69" s="17"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -3614,7 +3603,7 @@
       <c r="Y70" s="17"/>
       <c r="Z70" s="17"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -3642,7 +3631,7 @@
       <c r="Y71" s="17"/>
       <c r="Z71" s="17"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -3670,7 +3659,7 @@
       <c r="Y72" s="17"/>
       <c r="Z72" s="17"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -3698,7 +3687,7 @@
       <c r="Y73" s="17"/>
       <c r="Z73" s="17"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -3726,7 +3715,7 @@
       <c r="Y74" s="17"/>
       <c r="Z74" s="17"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -3754,7 +3743,7 @@
       <c r="Y75" s="17"/>
       <c r="Z75" s="17"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -3782,7 +3771,7 @@
       <c r="Y76" s="17"/>
       <c r="Z76" s="17"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -3810,7 +3799,7 @@
       <c r="Y77" s="17"/>
       <c r="Z77" s="17"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -3838,7 +3827,7 @@
       <c r="Y78" s="17"/>
       <c r="Z78" s="17"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -3866,7 +3855,7 @@
       <c r="Y79" s="17"/>
       <c r="Z79" s="17"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -3894,7 +3883,7 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="17"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -3922,7 +3911,7 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="17"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -3950,7 +3939,7 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="17"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -3978,7 +3967,7 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -4006,7 +3995,7 @@
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -4034,7 +4023,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -4062,7 +4051,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -4090,7 +4079,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -4118,7 +4107,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -4146,7 +4135,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -4174,7 +4163,7 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -4202,7 +4191,7 @@
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -4230,7 +4219,7 @@
       <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -4258,7 +4247,7 @@
       <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -4286,7 +4275,7 @@
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -4314,7 +4303,7 @@
       <c r="Y95" s="17"/>
       <c r="Z95" s="17"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -4342,7 +4331,7 @@
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -4370,7 +4359,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -4398,7 +4387,7 @@
       <c r="Y98" s="17"/>
       <c r="Z98" s="17"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -4427,7 +4416,7 @@
       <c r="Z99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
@@ -4435,6 +4424,8 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{1171F531-9169-4741-AD5F-5AE7EB2A7D59}"/>
@@ -4455,40 +4446,40 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="7"/>
+    <col min="29" max="29" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4602,7 +4593,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4635,7 +4626,7 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -4750,7 +4741,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
@@ -4867,7 +4858,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4984,7 +4975,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
@@ -4992,7 +4983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -5000,7 +4991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>52</v>
       </c>
@@ -5008,7 +4999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
@@ -5016,7 +5007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>54</v>
       </c>
@@ -5024,7 +5015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
@@ -5032,7 +5023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>56</v>
       </c>
@@ -5040,7 +5031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>58</v>
       </c>
@@ -5056,7 +5047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>59</v>
       </c>
@@ -5064,7 +5055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -5072,7 +5063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>61</v>
       </c>
@@ -5080,7 +5071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
@@ -5088,7 +5079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
@@ -5096,7 +5087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>64</v>
       </c>
@@ -5104,7 +5095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>65</v>
       </c>
@@ -5112,7 +5103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
@@ -5120,7 +5111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>67</v>
       </c>
@@ -5128,7 +5119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>68</v>
       </c>
@@ -5136,7 +5127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>69</v>
       </c>
@@ -5144,7 +5135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -5152,7 +5143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
@@ -5160,7 +5151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>72</v>
       </c>
@@ -5168,7 +5159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>73</v>
       </c>
@@ -5176,7 +5167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
@@ -5184,7 +5175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>75</v>
       </c>
@@ -5192,7 +5183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>76</v>
       </c>
@@ -5200,7 +5191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>77</v>
       </c>
@@ -5226,7 +5217,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5250,43 +5241,43 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5294,7 +5285,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5432,7 +5423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>78</v>
       </c>
@@ -5561,7 +5552,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D5" s="14" t="s">
         <v>78</v>
       </c>
@@ -5690,7 +5681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D6" s="14" t="s">
         <v>78</v>
       </c>
@@ -5819,7 +5810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D7" s="14" t="s">
         <v>78</v>
       </c>
@@ -5948,7 +5939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
         <v>78</v>
       </c>
@@ -6092,30 +6083,30 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6128,7 +6119,7 @@
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>

--- a/SuppXLS/Scen_B_TRA_Emissions.xlsx
+++ b/SuppXLS/Scen_B_TRA_Emissions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\~g2v_TIM\TRA_VA6\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A47E08-BF45-4D31-AAA1-D206FF3323D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BFA26-B1DA-4922-B95F-E8900E2778DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="2316" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="453">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -1505,13 +1505,16 @@
     <t>Mopeds</t>
   </si>
   <si>
-    <t>T-LGT*</t>
-  </si>
-  <si>
-    <t>T-MGT*,T-HGT*</t>
-  </si>
-  <si>
     <t>Light trucks</t>
+  </si>
+  <si>
+    <t>T-BUS*,-T-BUS-BEV*</t>
+  </si>
+  <si>
+    <t>T-MGT*,T-HGT*,-T-MGT-BEV*,-T-HGT-BEV*</t>
+  </si>
+  <si>
+    <t>T-LGT*,-T-LGT-BEV*</t>
   </si>
 </sst>
 </file>
@@ -2103,6 +2106,8 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2130,8 +2135,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{AB97AD92-C767-4954-8EC7-D9D8F846878E}"/>
@@ -4192,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776C821D-D078-45D4-B6B7-4704861B2C88}">
   <dimension ref="A2:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="46" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -5178,12 +5181,12 @@
         <v>80</v>
       </c>
       <c r="H46" s="86" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I46" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="K46" s="114">
+      <c r="K46" s="105">
         <v>0</v>
       </c>
       <c r="L46" s="102" t="s">
@@ -5200,7 +5203,7 @@
         <v>80</v>
       </c>
       <c r="H47" s="86" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I47" s="95" t="s">
         <v>83</v>
@@ -5224,7 +5227,7 @@
         <v>80</v>
       </c>
       <c r="H48" s="86" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I48" s="95" t="s">
         <v>81</v>
@@ -5249,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I49" s="43" t="s">
         <v>86</v>
@@ -5273,12 +5276,12 @@
         <v>80</v>
       </c>
       <c r="H50" s="86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I50" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="K50" s="114">
+      <c r="K50" s="105">
         <v>0</v>
       </c>
       <c r="L50" s="102" t="s">
@@ -5295,7 +5298,7 @@
         <v>80</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I51" s="95" t="s">
         <v>83</v>
@@ -5317,7 +5320,7 @@
         <v>80</v>
       </c>
       <c r="H52" s="86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I52" s="95" t="s">
         <v>81</v>
@@ -5342,7 +5345,7 @@
         <v>80</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I53" s="43" t="s">
         <v>86</v>
@@ -5367,13 +5370,13 @@
         <v>80</v>
       </c>
       <c r="H54" s="86" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="I54" s="95" t="s">
         <v>82</v>
       </c>
       <c r="J54" s="86"/>
-      <c r="K54" s="113">
+      <c r="K54" s="104">
         <v>0</v>
       </c>
       <c r="L54" s="102" t="s">
@@ -5391,7 +5394,7 @@
         <v>80</v>
       </c>
       <c r="H55" s="86" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="I55" s="95" t="s">
         <v>83</v>
@@ -5417,7 +5420,7 @@
         <v>80</v>
       </c>
       <c r="H56" s="86" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="I56" s="95" t="s">
         <v>81</v>
@@ -5443,7 +5446,7 @@
         <v>80</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="I57" s="43" t="s">
         <v>86</v>
@@ -6043,10 +6046,10 @@
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="14"/>
       <c r="D3" s="21" t="s">
         <v>92</v>
@@ -6074,7 +6077,7 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="107" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -6115,7 +6118,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="106"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="25"/>
       <c r="C5" s="14"/>
       <c r="D5" s="23" t="s">
@@ -6138,7 +6141,7 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="106" t="s">
         <v>101</v>
       </c>
       <c r="M5" s="42" t="s">
@@ -6150,7 +6153,7 @@
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="106"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="25"/>
       <c r="C6" s="14"/>
       <c r="D6" s="23" t="s">
@@ -6173,7 +6176,7 @@
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="104"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="42" t="s">
         <v>105</v>
       </c>
@@ -6183,7 +6186,7 @@
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="106"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="25"/>
       <c r="C7" s="19" t="s">
         <v>82</v>
@@ -6208,7 +6211,7 @@
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="104"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="42" t="s">
         <v>107</v>
       </c>
@@ -6218,7 +6221,7 @@
       <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="106"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>83</v>
@@ -6243,7 +6246,7 @@
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="104"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="42" t="s">
         <v>108</v>
       </c>
@@ -6253,7 +6256,7 @@
       <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>84</v>
@@ -6278,7 +6281,7 @@
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="104"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="42" t="s">
         <v>110</v>
       </c>
@@ -6288,7 +6291,7 @@
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="106"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="25"/>
       <c r="C10" s="19" t="s">
         <v>85</v>
@@ -6313,7 +6316,7 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="104"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="42" t="s">
         <v>112</v>
       </c>
@@ -6323,7 +6326,7 @@
       <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="27" t="s">
         <v>113</v>
       </c>
@@ -6354,7 +6357,7 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="31"/>
       <c r="C12" s="14"/>
       <c r="D12" s="28" t="s">
@@ -6383,7 +6386,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="31"/>
       <c r="C13" s="14"/>
       <c r="D13" s="28" t="s">
@@ -6412,7 +6415,7 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="31"/>
       <c r="C14" s="19" t="s">
         <v>82</v>
@@ -6451,7 +6454,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="31"/>
       <c r="C15" s="19" t="s">
         <v>83</v>
@@ -6476,7 +6479,7 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="104" t="s">
+      <c r="L15" s="106" t="s">
         <v>114</v>
       </c>
       <c r="M15" s="42" t="s">
@@ -6488,7 +6491,7 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="31"/>
       <c r="C16" s="19" t="s">
         <v>84</v>
@@ -6513,7 +6516,7 @@
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="104"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="42" t="s">
         <v>105</v>
       </c>
@@ -6523,7 +6526,7 @@
       <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="31"/>
       <c r="C17" s="19" t="s">
         <v>85</v>
@@ -6548,7 +6551,7 @@
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="104"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="42" t="s">
         <v>107</v>
       </c>
@@ -6558,7 +6561,7 @@
       <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="22" t="s">
         <v>115</v>
       </c>
@@ -6583,7 +6586,7 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="104"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="42" t="s">
         <v>108</v>
       </c>
@@ -6593,7 +6596,7 @@
       <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="25"/>
       <c r="C19" s="14"/>
       <c r="D19" s="23" t="s">
@@ -6616,7 +6619,7 @@
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="104"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="42" t="s">
         <v>110</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="25"/>
       <c r="C20" s="14"/>
       <c r="D20" s="23" t="s">
@@ -6649,7 +6652,7 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="104"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="42" t="s">
         <v>112</v>
       </c>
@@ -6659,7 +6662,7 @@
       <c r="O20" s="42"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
         <v>82</v>
@@ -6690,7 +6693,7 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="25"/>
       <c r="C22" s="19" t="s">
         <v>83</v>
@@ -6721,7 +6724,7 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="25"/>
       <c r="C23" s="19" t="s">
         <v>84</v>
@@ -6752,7 +6755,7 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="25"/>
       <c r="C24" s="19" t="s">
         <v>85</v>
@@ -6783,7 +6786,7 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="27" t="s">
         <v>116</v>
       </c>
@@ -6814,7 +6817,7 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="31"/>
       <c r="C26" s="14"/>
       <c r="D26" s="28" t="s">
@@ -6843,7 +6846,7 @@
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="31"/>
       <c r="C27" s="14"/>
       <c r="D27" s="28" t="s">
@@ -6872,7 +6875,7 @@
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="31"/>
       <c r="C28" s="19" t="s">
         <v>82</v>
@@ -6903,7 +6906,7 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="106"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="31"/>
       <c r="C29" s="19" t="s">
         <v>83</v>
@@ -6934,7 +6937,7 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="106"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="31"/>
       <c r="C30" s="19" t="s">
         <v>84</v>
@@ -6965,7 +6968,7 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="106"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="31"/>
       <c r="C31" s="19" t="s">
         <v>85</v>
@@ -6996,7 +6999,7 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="106"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="22" t="s">
         <v>117</v>
       </c>
@@ -7027,7 +7030,7 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="106"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="25"/>
       <c r="C33" s="14"/>
       <c r="D33" s="23" t="s">
@@ -7050,7 +7053,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="25"/>
       <c r="C34" s="14"/>
       <c r="D34" s="23" t="s">
@@ -7073,7 +7076,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="106"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="25"/>
       <c r="C35" s="19" t="s">
         <v>82</v>
@@ -7098,7 +7101,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="25"/>
       <c r="C36" s="19" t="s">
         <v>83</v>
@@ -7123,7 +7126,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="25"/>
       <c r="C37" s="19" t="s">
         <v>84</v>
@@ -7148,7 +7151,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="106"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="25"/>
       <c r="C38" s="19" t="s">
         <v>85</v>
@@ -7173,7 +7176,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="106"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="27" t="s">
         <v>118</v>
       </c>
@@ -7198,7 +7201,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="31"/>
       <c r="C40" s="14"/>
       <c r="D40" s="28" t="s">
@@ -7221,7 +7224,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="31"/>
       <c r="C41" s="14"/>
       <c r="D41" s="28" t="s">
@@ -7244,7 +7247,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="106"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="31"/>
       <c r="C42" s="19" t="s">
         <v>82</v>
@@ -7269,7 +7272,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="106"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="31"/>
       <c r="C43" s="19" t="s">
         <v>83</v>
@@ -7294,7 +7297,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="106"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="31"/>
       <c r="C44" s="19" t="s">
         <v>84</v>
@@ -7319,7 +7322,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="31"/>
       <c r="C45" s="19" t="s">
         <v>85</v>
@@ -7344,7 +7347,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="106"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="22" t="s">
         <v>119</v>
       </c>
@@ -7369,7 +7372,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="25"/>
       <c r="C47" s="14"/>
       <c r="D47" s="23" t="s">
@@ -7392,7 +7395,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="106"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="25"/>
       <c r="C48" s="14"/>
       <c r="D48" s="23" t="s">
@@ -7415,7 +7418,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="106"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="25"/>
       <c r="C49" s="19" t="s">
         <v>82</v>
@@ -7440,7 +7443,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="106"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="25"/>
       <c r="C50" s="19" t="s">
         <v>83</v>
@@ -7465,7 +7468,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="106"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="25"/>
       <c r="C51" s="19" t="s">
         <v>84</v>
@@ -7490,7 +7493,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="106"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="25"/>
       <c r="C52" s="19" t="s">
         <v>85</v>
@@ -7515,7 +7518,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="106"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="27" t="s">
         <v>120</v>
       </c>
@@ -7540,7 +7543,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="106"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="31"/>
       <c r="C54" s="14"/>
       <c r="D54" s="28" t="s">
@@ -7563,7 +7566,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="106"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="31"/>
       <c r="C55" s="14"/>
       <c r="D55" s="28" t="s">
@@ -7586,7 +7589,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="106"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="31"/>
       <c r="C56" s="19" t="s">
         <v>82</v>
@@ -7611,7 +7614,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="106"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="31"/>
       <c r="C57" s="19" t="s">
         <v>83</v>
@@ -7636,7 +7639,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="106"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="31"/>
       <c r="C58" s="19" t="s">
         <v>84</v>
@@ -7661,7 +7664,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="106"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="31"/>
       <c r="C59" s="19" t="s">
         <v>85</v>
@@ -7686,7 +7689,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="106"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="22" t="s">
         <v>121</v>
       </c>
@@ -7711,7 +7714,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="106"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="25"/>
       <c r="C61" s="14"/>
       <c r="D61" s="23" t="s">
@@ -7734,7 +7737,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="106"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="25"/>
       <c r="C62" s="14"/>
       <c r="D62" s="23" t="s">
@@ -7757,7 +7760,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="106"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="25"/>
       <c r="C63" s="19" t="s">
         <v>82</v>
@@ -7782,7 +7785,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="106"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="25"/>
       <c r="C64" s="19" t="s">
         <v>83</v>
@@ -7807,7 +7810,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="106"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="25"/>
       <c r="C65" s="19" t="s">
         <v>84</v>
@@ -7832,7 +7835,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="106"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="25"/>
       <c r="C66" s="19" t="s">
         <v>85</v>
@@ -7857,7 +7860,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="106"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="27" t="s">
         <v>122</v>
       </c>
@@ -7882,7 +7885,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="106"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="31"/>
       <c r="C68" s="14"/>
       <c r="D68" s="28" t="s">
@@ -7905,7 +7908,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="106"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="31"/>
       <c r="C69" s="14"/>
       <c r="D69" s="28" t="s">
@@ -7928,7 +7931,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="106"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="31"/>
       <c r="C70" s="19" t="s">
         <v>82</v>
@@ -7953,7 +7956,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="106"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="31"/>
       <c r="C71" s="19" t="s">
         <v>83</v>
@@ -7978,7 +7981,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="106"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="31"/>
       <c r="C72" s="19" t="s">
         <v>84</v>
@@ -8003,7 +8006,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="106"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="31"/>
       <c r="C73" s="19" t="s">
         <v>85</v>
@@ -8028,7 +8031,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="106"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="22" t="s">
         <v>123</v>
       </c>
@@ -8053,7 +8056,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="106"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="25"/>
       <c r="C75" s="14"/>
       <c r="D75" s="23" t="s">
@@ -8076,7 +8079,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="106"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="25"/>
       <c r="C76" s="14"/>
       <c r="D76" s="23" t="s">
@@ -8099,7 +8102,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="106"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="25"/>
       <c r="C77" s="19" t="s">
         <v>82</v>
@@ -8124,7 +8127,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="106"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="25"/>
       <c r="C78" s="19" t="s">
         <v>83</v>
@@ -8149,7 +8152,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="106"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="25"/>
       <c r="C79" s="19" t="s">
         <v>84</v>
@@ -8174,7 +8177,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="106"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="25"/>
       <c r="C80" s="19" t="s">
         <v>85</v>
@@ -8199,7 +8202,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="106"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="27" t="s">
         <v>124</v>
       </c>
@@ -8224,7 +8227,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="106"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="31"/>
       <c r="C82" s="14"/>
       <c r="D82" s="28" t="s">
@@ -8247,7 +8250,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="106"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="31"/>
       <c r="C83" s="14"/>
       <c r="D83" s="28" t="s">
@@ -8270,7 +8273,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="106"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="31"/>
       <c r="C84" s="19" t="s">
         <v>82</v>
@@ -8295,7 +8298,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="106"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="31"/>
       <c r="C85" s="19" t="s">
         <v>83</v>
@@ -8320,7 +8323,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="106"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="31"/>
       <c r="C86" s="19" t="s">
         <v>84</v>
@@ -8345,7 +8348,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="106"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="31"/>
       <c r="C87" s="19" t="s">
         <v>85</v>
@@ -8370,7 +8373,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="106"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="22" t="s">
         <v>125</v>
       </c>
@@ -8395,7 +8398,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="106"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="25"/>
       <c r="C89" s="14"/>
       <c r="D89" s="23" t="s">
@@ -8418,7 +8421,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="106"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="25"/>
       <c r="C90" s="14"/>
       <c r="D90" s="23" t="s">
@@ -8441,7 +8444,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="106"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="25"/>
       <c r="C91" s="19" t="s">
         <v>82</v>
@@ -8466,7 +8469,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="106"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="25"/>
       <c r="C92" s="19" t="s">
         <v>83</v>
@@ -8491,7 +8494,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="106"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="25"/>
       <c r="C93" s="19" t="s">
         <v>84</v>
@@ -8516,7 +8519,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="106"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="25"/>
       <c r="C94" s="19" t="s">
         <v>85</v>
@@ -8541,7 +8544,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="106"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="27" t="s">
         <v>126</v>
       </c>
@@ -8566,7 +8569,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="106"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="31"/>
       <c r="C96" s="14"/>
       <c r="D96" s="28" t="s">
@@ -8589,7 +8592,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="106"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="31"/>
       <c r="C97" s="14"/>
       <c r="D97" s="28" t="s">
@@ -8612,7 +8615,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="106"/>
+      <c r="A98" s="108"/>
       <c r="B98" s="31"/>
       <c r="C98" s="19" t="s">
         <v>82</v>
@@ -8637,7 +8640,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="106"/>
+      <c r="A99" s="108"/>
       <c r="B99" s="31"/>
       <c r="C99" s="19" t="s">
         <v>83</v>
@@ -8662,7 +8665,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="106"/>
+      <c r="A100" s="108"/>
       <c r="B100" s="31"/>
       <c r="C100" s="19" t="s">
         <v>84</v>
@@ -8687,7 +8690,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="106"/>
+      <c r="A101" s="108"/>
       <c r="B101" s="31"/>
       <c r="C101" s="19" t="s">
         <v>85</v>
@@ -8712,7 +8715,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="106"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="22" t="s">
         <v>127</v>
       </c>
@@ -8737,7 +8740,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="106"/>
+      <c r="A103" s="108"/>
       <c r="B103" s="25"/>
       <c r="C103" s="14"/>
       <c r="D103" s="23" t="s">
@@ -8760,7 +8763,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="106"/>
+      <c r="A104" s="108"/>
       <c r="B104" s="25"/>
       <c r="C104" s="14"/>
       <c r="D104" s="23" t="s">
@@ -8783,7 +8786,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="106"/>
+      <c r="A105" s="108"/>
       <c r="B105" s="25"/>
       <c r="C105" s="19" t="s">
         <v>82</v>
@@ -8808,7 +8811,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="106"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="25"/>
       <c r="C106" s="19" t="s">
         <v>83</v>
@@ -8833,7 +8836,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="106"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="25"/>
       <c r="C107" s="19" t="s">
         <v>84</v>
@@ -8858,7 +8861,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="106"/>
+      <c r="A108" s="108"/>
       <c r="B108" s="25"/>
       <c r="C108" s="19" t="s">
         <v>85</v>
@@ -8883,7 +8886,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="106"/>
+      <c r="A109" s="108"/>
       <c r="B109" s="27" t="s">
         <v>128</v>
       </c>
@@ -8908,7 +8911,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="106"/>
+      <c r="A110" s="108"/>
       <c r="B110" s="31"/>
       <c r="C110" s="14"/>
       <c r="D110" s="28" t="s">
@@ -8931,7 +8934,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="106"/>
+      <c r="A111" s="108"/>
       <c r="B111" s="31"/>
       <c r="C111" s="14"/>
       <c r="D111" s="28" t="s">
@@ -8954,7 +8957,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="106"/>
+      <c r="A112" s="108"/>
       <c r="B112" s="31"/>
       <c r="C112" s="19" t="s">
         <v>82</v>
@@ -8979,7 +8982,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="106"/>
+      <c r="A113" s="108"/>
       <c r="B113" s="31"/>
       <c r="C113" s="19" t="s">
         <v>83</v>
@@ -9004,7 +9007,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="106"/>
+      <c r="A114" s="108"/>
       <c r="B114" s="31"/>
       <c r="C114" s="19" t="s">
         <v>84</v>
@@ -9029,7 +9032,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="106"/>
+      <c r="A115" s="108"/>
       <c r="B115" s="31"/>
       <c r="C115" s="19" t="s">
         <v>85</v>
@@ -9054,7 +9057,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="109" t="s">
+      <c r="A116" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B116" s="33" t="s">
@@ -9081,7 +9084,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="110"/>
+      <c r="A117" s="112"/>
       <c r="B117" s="36"/>
       <c r="C117" s="14"/>
       <c r="D117" s="34" t="s">
@@ -9104,7 +9107,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="110"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="36"/>
       <c r="C118" s="14"/>
       <c r="D118" s="34" t="s">
@@ -9127,7 +9130,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="110"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="36"/>
       <c r="C119" s="19" t="s">
         <v>82</v>
@@ -9152,7 +9155,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="110"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="36"/>
       <c r="C120" s="19" t="s">
         <v>83</v>
@@ -9177,7 +9180,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="110"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="36"/>
       <c r="C121" s="19" t="s">
         <v>84</v>
@@ -9202,7 +9205,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="110"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="36"/>
       <c r="C122" s="19" t="s">
         <v>85</v>
@@ -9227,7 +9230,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="110"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="37" t="s">
         <v>95</v>
       </c>
@@ -9252,7 +9255,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="110"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="40"/>
       <c r="C124" s="14"/>
       <c r="D124" s="38" t="s">
@@ -9275,7 +9278,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="110"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="40"/>
       <c r="C125" s="14"/>
       <c r="D125" s="38" t="s">
@@ -9298,7 +9301,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="110"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="40"/>
       <c r="C126" s="19" t="s">
         <v>82</v>
@@ -9323,7 +9326,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="110"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="40"/>
       <c r="C127" s="19" t="s">
         <v>83</v>
@@ -9348,7 +9351,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="110"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="40"/>
       <c r="C128" s="19" t="s">
         <v>84</v>
@@ -9373,7 +9376,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="110"/>
+      <c r="A129" s="112"/>
       <c r="B129" s="40"/>
       <c r="C129" s="19" t="s">
         <v>85</v>
@@ -9398,7 +9401,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="110"/>
+      <c r="A130" s="112"/>
       <c r="B130" s="33" t="s">
         <v>116</v>
       </c>
@@ -9423,7 +9426,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="110"/>
+      <c r="A131" s="112"/>
       <c r="B131" s="36"/>
       <c r="C131" s="14"/>
       <c r="D131" s="34" t="s">
@@ -9446,7 +9449,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="110"/>
+      <c r="A132" s="112"/>
       <c r="B132" s="36"/>
       <c r="C132" s="14"/>
       <c r="D132" s="34" t="s">
@@ -9469,7 +9472,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="110"/>
+      <c r="A133" s="112"/>
       <c r="B133" s="36"/>
       <c r="C133" s="19" t="s">
         <v>82</v>
@@ -9494,7 +9497,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="110"/>
+      <c r="A134" s="112"/>
       <c r="B134" s="36"/>
       <c r="C134" s="19" t="s">
         <v>83</v>
@@ -9519,7 +9522,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="110"/>
+      <c r="A135" s="112"/>
       <c r="B135" s="36"/>
       <c r="C135" s="19" t="s">
         <v>84</v>
@@ -9544,7 +9547,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="110"/>
+      <c r="A136" s="112"/>
       <c r="B136" s="36"/>
       <c r="C136" s="19" t="s">
         <v>85</v>
@@ -9569,7 +9572,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="110"/>
+      <c r="A137" s="112"/>
       <c r="B137" s="37" t="s">
         <v>117</v>
       </c>
@@ -9594,7 +9597,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="110"/>
+      <c r="A138" s="112"/>
       <c r="B138" s="40"/>
       <c r="C138" s="14"/>
       <c r="D138" s="38" t="s">
@@ -9617,7 +9620,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="110"/>
+      <c r="A139" s="112"/>
       <c r="B139" s="40"/>
       <c r="C139" s="14"/>
       <c r="D139" s="38" t="s">
@@ -9640,7 +9643,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="110"/>
+      <c r="A140" s="112"/>
       <c r="B140" s="40"/>
       <c r="C140" s="19" t="s">
         <v>82</v>
@@ -9665,7 +9668,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="110"/>
+      <c r="A141" s="112"/>
       <c r="B141" s="40"/>
       <c r="C141" s="19" t="s">
         <v>83</v>
@@ -9690,7 +9693,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="110"/>
+      <c r="A142" s="112"/>
       <c r="B142" s="40"/>
       <c r="C142" s="19" t="s">
         <v>84</v>
@@ -9715,7 +9718,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="110"/>
+      <c r="A143" s="112"/>
       <c r="B143" s="40"/>
       <c r="C143" s="19" t="s">
         <v>85</v>
@@ -9740,7 +9743,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="110"/>
+      <c r="A144" s="112"/>
       <c r="B144" s="33" t="s">
         <v>119</v>
       </c>
@@ -9765,7 +9768,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="110"/>
+      <c r="A145" s="112"/>
       <c r="B145" s="36"/>
       <c r="C145" s="14"/>
       <c r="D145" s="34" t="s">
@@ -9788,7 +9791,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="110"/>
+      <c r="A146" s="112"/>
       <c r="B146" s="36"/>
       <c r="C146" s="14"/>
       <c r="D146" s="34" t="s">
@@ -9811,7 +9814,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="110"/>
+      <c r="A147" s="112"/>
       <c r="B147" s="36"/>
       <c r="C147" s="19" t="s">
         <v>82</v>
@@ -9836,7 +9839,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="110"/>
+      <c r="A148" s="112"/>
       <c r="B148" s="36"/>
       <c r="C148" s="19" t="s">
         <v>83</v>
@@ -9861,7 +9864,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="110"/>
+      <c r="A149" s="112"/>
       <c r="B149" s="36"/>
       <c r="C149" s="19" t="s">
         <v>84</v>
@@ -9886,7 +9889,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="110"/>
+      <c r="A150" s="112"/>
       <c r="B150" s="36"/>
       <c r="C150" s="19" t="s">
         <v>85</v>
@@ -9911,7 +9914,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="110"/>
+      <c r="A151" s="112"/>
       <c r="B151" s="37" t="s">
         <v>120</v>
       </c>
@@ -9936,7 +9939,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="110"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="40"/>
       <c r="C152" s="14"/>
       <c r="D152" s="38" t="s">
@@ -9959,7 +9962,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="110"/>
+      <c r="A153" s="112"/>
       <c r="B153" s="40"/>
       <c r="C153" s="14"/>
       <c r="D153" s="38" t="s">
@@ -9982,7 +9985,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="110"/>
+      <c r="A154" s="112"/>
       <c r="B154" s="40"/>
       <c r="C154" s="19" t="s">
         <v>82</v>
@@ -10007,7 +10010,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="110"/>
+      <c r="A155" s="112"/>
       <c r="B155" s="40"/>
       <c r="C155" s="19" t="s">
         <v>83</v>
@@ -10032,7 +10035,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="110"/>
+      <c r="A156" s="112"/>
       <c r="B156" s="40"/>
       <c r="C156" s="19" t="s">
         <v>84</v>
@@ -10057,7 +10060,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="110"/>
+      <c r="A157" s="112"/>
       <c r="B157" s="40"/>
       <c r="C157" s="19" t="s">
         <v>85</v>
@@ -10082,7 +10085,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="110"/>
+      <c r="A158" s="112"/>
       <c r="B158" s="33" t="s">
         <v>123</v>
       </c>
@@ -10107,7 +10110,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="110"/>
+      <c r="A159" s="112"/>
       <c r="B159" s="36"/>
       <c r="C159" s="14"/>
       <c r="D159" s="34" t="s">
@@ -10130,7 +10133,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="110"/>
+      <c r="A160" s="112"/>
       <c r="B160" s="36"/>
       <c r="C160" s="14"/>
       <c r="D160" s="34" t="s">
@@ -10153,7 +10156,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="110"/>
+      <c r="A161" s="112"/>
       <c r="B161" s="36"/>
       <c r="C161" s="19" t="s">
         <v>82</v>
@@ -10178,7 +10181,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="110"/>
+      <c r="A162" s="112"/>
       <c r="B162" s="36"/>
       <c r="C162" s="19" t="s">
         <v>83</v>
@@ -10203,7 +10206,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="110"/>
+      <c r="A163" s="112"/>
       <c r="B163" s="36"/>
       <c r="C163" s="19" t="s">
         <v>84</v>
@@ -10228,7 +10231,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="110"/>
+      <c r="A164" s="112"/>
       <c r="B164" s="36"/>
       <c r="C164" s="19" t="s">
         <v>85</v>
@@ -10253,7 +10256,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="110"/>
+      <c r="A165" s="112"/>
       <c r="B165" s="37" t="s">
         <v>128</v>
       </c>
@@ -10278,7 +10281,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="110"/>
+      <c r="A166" s="112"/>
       <c r="B166" s="40"/>
       <c r="C166" s="14"/>
       <c r="D166" s="38" t="s">
@@ -10301,7 +10304,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="110"/>
+      <c r="A167" s="112"/>
       <c r="B167" s="40"/>
       <c r="C167" s="14"/>
       <c r="D167" s="38" t="s">
@@ -10324,7 +10327,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="110"/>
+      <c r="A168" s="112"/>
       <c r="B168" s="40"/>
       <c r="C168" s="19" t="s">
         <v>82</v>
@@ -10349,7 +10352,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="110"/>
+      <c r="A169" s="112"/>
       <c r="B169" s="40"/>
       <c r="C169" s="19" t="s">
         <v>83</v>
@@ -10374,7 +10377,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="110"/>
+      <c r="A170" s="112"/>
       <c r="B170" s="40"/>
       <c r="C170" s="19" t="s">
         <v>84</v>
@@ -10399,7 +10402,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="110"/>
+      <c r="A171" s="112"/>
       <c r="B171" s="40"/>
       <c r="C171" s="19" t="s">
         <v>85</v>
@@ -10424,7 +10427,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="105" t="s">
+      <c r="A172" s="107" t="s">
         <v>131</v>
       </c>
       <c r="B172" s="22" t="s">
@@ -10451,7 +10454,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="106"/>
+      <c r="A173" s="108"/>
       <c r="B173" s="25"/>
       <c r="C173" s="14"/>
       <c r="D173" s="23" t="s">
@@ -10474,7 +10477,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="106"/>
+      <c r="A174" s="108"/>
       <c r="B174" s="25"/>
       <c r="C174" s="14"/>
       <c r="D174" s="23" t="s">
@@ -10497,7 +10500,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="106"/>
+      <c r="A175" s="108"/>
       <c r="B175" s="25"/>
       <c r="C175" s="19" t="s">
         <v>82</v>
@@ -10522,7 +10525,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="106"/>
+      <c r="A176" s="108"/>
       <c r="B176" s="25"/>
       <c r="C176" s="19" t="s">
         <v>83</v>
@@ -10547,7 +10550,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="106"/>
+      <c r="A177" s="108"/>
       <c r="B177" s="25"/>
       <c r="C177" s="19" t="s">
         <v>84</v>
@@ -10572,7 +10575,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="106"/>
+      <c r="A178" s="108"/>
       <c r="B178" s="25"/>
       <c r="C178" s="19" t="s">
         <v>85</v>
@@ -10597,7 +10600,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="106"/>
+      <c r="A179" s="108"/>
       <c r="B179" s="27" t="s">
         <v>95</v>
       </c>
@@ -10622,7 +10625,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="106"/>
+      <c r="A180" s="108"/>
       <c r="B180" s="31"/>
       <c r="C180" s="14"/>
       <c r="D180" s="28" t="s">
@@ -10645,7 +10648,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="106"/>
+      <c r="A181" s="108"/>
       <c r="B181" s="31"/>
       <c r="C181" s="14"/>
       <c r="D181" s="28" t="s">
@@ -10668,7 +10671,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="106"/>
+      <c r="A182" s="108"/>
       <c r="B182" s="31"/>
       <c r="C182" s="19" t="s">
         <v>82</v>
@@ -10693,7 +10696,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="106"/>
+      <c r="A183" s="108"/>
       <c r="B183" s="31"/>
       <c r="C183" s="19" t="s">
         <v>83</v>
@@ -10718,7 +10721,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="106"/>
+      <c r="A184" s="108"/>
       <c r="B184" s="31"/>
       <c r="C184" s="19" t="s">
         <v>84</v>
@@ -10743,7 +10746,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="106"/>
+      <c r="A185" s="108"/>
       <c r="B185" s="31"/>
       <c r="C185" s="19" t="s">
         <v>85</v>
@@ -10768,7 +10771,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="106"/>
+      <c r="A186" s="108"/>
       <c r="B186" s="22" t="s">
         <v>116</v>
       </c>
@@ -10793,7 +10796,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="106"/>
+      <c r="A187" s="108"/>
       <c r="B187" s="25"/>
       <c r="C187" s="14"/>
       <c r="D187" s="23" t="s">
@@ -10816,7 +10819,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="106"/>
+      <c r="A188" s="108"/>
       <c r="B188" s="25"/>
       <c r="C188" s="14"/>
       <c r="D188" s="23" t="s">
@@ -10839,7 +10842,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="106"/>
+      <c r="A189" s="108"/>
       <c r="B189" s="25"/>
       <c r="C189" s="19" t="s">
         <v>82</v>
@@ -10864,7 +10867,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="106"/>
+      <c r="A190" s="108"/>
       <c r="B190" s="25"/>
       <c r="C190" s="19" t="s">
         <v>83</v>
@@ -10889,7 +10892,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="106"/>
+      <c r="A191" s="108"/>
       <c r="B191" s="25"/>
       <c r="C191" s="19" t="s">
         <v>84</v>
@@ -10914,7 +10917,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="106"/>
+      <c r="A192" s="108"/>
       <c r="B192" s="25"/>
       <c r="C192" s="19" t="s">
         <v>85</v>
@@ -10939,7 +10942,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="106"/>
+      <c r="A193" s="108"/>
       <c r="B193" s="27" t="s">
         <v>117</v>
       </c>
@@ -10964,7 +10967,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="106"/>
+      <c r="A194" s="108"/>
       <c r="B194" s="31"/>
       <c r="C194" s="14"/>
       <c r="D194" s="28" t="s">
@@ -10987,7 +10990,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="106"/>
+      <c r="A195" s="108"/>
       <c r="B195" s="31"/>
       <c r="C195" s="14"/>
       <c r="D195" s="28" t="s">
@@ -11010,7 +11013,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="106"/>
+      <c r="A196" s="108"/>
       <c r="B196" s="31"/>
       <c r="C196" s="19" t="s">
         <v>82</v>
@@ -11035,7 +11038,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="106"/>
+      <c r="A197" s="108"/>
       <c r="B197" s="31"/>
       <c r="C197" s="19" t="s">
         <v>83</v>
@@ -11060,7 +11063,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="106"/>
+      <c r="A198" s="108"/>
       <c r="B198" s="31"/>
       <c r="C198" s="19" t="s">
         <v>84</v>
@@ -11085,7 +11088,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="106"/>
+      <c r="A199" s="108"/>
       <c r="B199" s="31"/>
       <c r="C199" s="19" t="s">
         <v>85</v>
@@ -11110,7 +11113,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="106"/>
+      <c r="A200" s="108"/>
       <c r="B200" s="22" t="s">
         <v>119</v>
       </c>
@@ -11135,7 +11138,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="106"/>
+      <c r="A201" s="108"/>
       <c r="B201" s="25"/>
       <c r="C201" s="14"/>
       <c r="D201" s="23" t="s">
@@ -11158,7 +11161,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="106"/>
+      <c r="A202" s="108"/>
       <c r="B202" s="25"/>
       <c r="C202" s="14"/>
       <c r="D202" s="23" t="s">
@@ -11181,7 +11184,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="106"/>
+      <c r="A203" s="108"/>
       <c r="B203" s="25"/>
       <c r="C203" s="19" t="s">
         <v>82</v>
@@ -11206,7 +11209,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="106"/>
+      <c r="A204" s="108"/>
       <c r="B204" s="25"/>
       <c r="C204" s="19" t="s">
         <v>83</v>
@@ -11231,7 +11234,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="106"/>
+      <c r="A205" s="108"/>
       <c r="B205" s="25"/>
       <c r="C205" s="19" t="s">
         <v>84</v>
@@ -11256,7 +11259,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="106"/>
+      <c r="A206" s="108"/>
       <c r="B206" s="25"/>
       <c r="C206" s="19" t="s">
         <v>85</v>
@@ -11281,7 +11284,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="106"/>
+      <c r="A207" s="108"/>
       <c r="B207" s="27" t="s">
         <v>120</v>
       </c>
@@ -11306,7 +11309,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="106"/>
+      <c r="A208" s="108"/>
       <c r="B208" s="31"/>
       <c r="C208" s="14"/>
       <c r="D208" s="28" t="s">
@@ -11329,7 +11332,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="106"/>
+      <c r="A209" s="108"/>
       <c r="B209" s="31"/>
       <c r="C209" s="14"/>
       <c r="D209" s="28" t="s">
@@ -11352,7 +11355,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="106"/>
+      <c r="A210" s="108"/>
       <c r="B210" s="31"/>
       <c r="C210" s="19" t="s">
         <v>82</v>
@@ -11377,7 +11380,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="106"/>
+      <c r="A211" s="108"/>
       <c r="B211" s="31"/>
       <c r="C211" s="19" t="s">
         <v>83</v>
@@ -11402,7 +11405,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="106"/>
+      <c r="A212" s="108"/>
       <c r="B212" s="31"/>
       <c r="C212" s="19" t="s">
         <v>84</v>
@@ -11427,7 +11430,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="106"/>
+      <c r="A213" s="108"/>
       <c r="B213" s="31"/>
       <c r="C213" s="19" t="s">
         <v>85</v>
@@ -11452,7 +11455,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="106"/>
+      <c r="A214" s="108"/>
       <c r="B214" s="22" t="s">
         <v>123</v>
       </c>
@@ -11477,7 +11480,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="106"/>
+      <c r="A215" s="108"/>
       <c r="B215" s="25"/>
       <c r="C215" s="14"/>
       <c r="D215" s="23" t="s">
@@ -11500,7 +11503,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="106"/>
+      <c r="A216" s="108"/>
       <c r="B216" s="25"/>
       <c r="C216" s="14"/>
       <c r="D216" s="23" t="s">
@@ -11523,7 +11526,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="106"/>
+      <c r="A217" s="108"/>
       <c r="B217" s="25"/>
       <c r="C217" s="19" t="s">
         <v>82</v>
@@ -11548,7 +11551,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="106"/>
+      <c r="A218" s="108"/>
       <c r="B218" s="25"/>
       <c r="C218" s="19" t="s">
         <v>83</v>
@@ -11573,7 +11576,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="106"/>
+      <c r="A219" s="108"/>
       <c r="B219" s="25"/>
       <c r="C219" s="19" t="s">
         <v>84</v>
@@ -11598,7 +11601,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="106"/>
+      <c r="A220" s="108"/>
       <c r="B220" s="25"/>
       <c r="C220" s="19" t="s">
         <v>85</v>
@@ -11623,7 +11626,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="106"/>
+      <c r="A221" s="108"/>
       <c r="B221" s="27" t="s">
         <v>128</v>
       </c>
@@ -11648,7 +11651,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="106"/>
+      <c r="A222" s="108"/>
       <c r="B222" s="31"/>
       <c r="C222" s="14"/>
       <c r="D222" s="28" t="s">
@@ -11671,7 +11674,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="106"/>
+      <c r="A223" s="108"/>
       <c r="B223" s="31"/>
       <c r="C223" s="14"/>
       <c r="D223" s="28" t="s">
@@ -11694,7 +11697,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="106"/>
+      <c r="A224" s="108"/>
       <c r="B224" s="31"/>
       <c r="C224" s="19" t="s">
         <v>82</v>
@@ -11719,7 +11722,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="106"/>
+      <c r="A225" s="108"/>
       <c r="B225" s="31"/>
       <c r="C225" s="19" t="s">
         <v>83</v>
@@ -11744,7 +11747,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="106"/>
+      <c r="A226" s="108"/>
       <c r="B226" s="31"/>
       <c r="C226" s="19" t="s">
         <v>84</v>
@@ -11769,7 +11772,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="106"/>
+      <c r="A227" s="108"/>
       <c r="B227" s="31"/>
       <c r="C227" s="19" t="s">
         <v>85</v>
@@ -11794,7 +11797,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="111" t="s">
+      <c r="A228" s="113" t="s">
         <v>132</v>
       </c>
       <c r="B228" s="33" t="s">
@@ -11821,7 +11824,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="112"/>
+      <c r="A229" s="114"/>
       <c r="B229" s="36"/>
       <c r="C229" s="14"/>
       <c r="D229" s="34" t="s">
@@ -11844,7 +11847,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="112"/>
+      <c r="A230" s="114"/>
       <c r="B230" s="36"/>
       <c r="C230" s="14"/>
       <c r="D230" s="34" t="s">
@@ -11867,7 +11870,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="112"/>
+      <c r="A231" s="114"/>
       <c r="B231" s="36"/>
       <c r="C231" s="19" t="s">
         <v>82</v>
@@ -11892,7 +11895,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="112"/>
+      <c r="A232" s="114"/>
       <c r="B232" s="36"/>
       <c r="C232" s="19" t="s">
         <v>83</v>
@@ -11917,7 +11920,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="112"/>
+      <c r="A233" s="114"/>
       <c r="B233" s="36"/>
       <c r="C233" s="19" t="s">
         <v>84</v>
@@ -11942,7 +11945,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="112"/>
+      <c r="A234" s="114"/>
       <c r="B234" s="36"/>
       <c r="C234" s="19" t="s">
         <v>85</v>
@@ -11967,7 +11970,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="112"/>
+      <c r="A235" s="114"/>
       <c r="B235" s="37" t="s">
         <v>122</v>
       </c>
@@ -11992,7 +11995,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="112"/>
+      <c r="A236" s="114"/>
       <c r="B236" s="40"/>
       <c r="C236" s="14"/>
       <c r="D236" s="38" t="s">
@@ -12015,7 +12018,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="112"/>
+      <c r="A237" s="114"/>
       <c r="B237" s="40"/>
       <c r="C237" s="14"/>
       <c r="D237" s="38" t="s">
@@ -12038,7 +12041,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="112"/>
+      <c r="A238" s="114"/>
       <c r="B238" s="40"/>
       <c r="C238" s="19" t="s">
         <v>82</v>
@@ -12063,7 +12066,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="112"/>
+      <c r="A239" s="114"/>
       <c r="B239" s="40"/>
       <c r="C239" s="19" t="s">
         <v>83</v>
@@ -12088,7 +12091,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="112"/>
+      <c r="A240" s="114"/>
       <c r="B240" s="40"/>
       <c r="C240" s="19" t="s">
         <v>84</v>
@@ -12113,7 +12116,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="112"/>
+      <c r="A241" s="114"/>
       <c r="B241" s="40"/>
       <c r="C241" s="19" t="s">
         <v>85</v>
@@ -12138,7 +12141,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="112"/>
+      <c r="A242" s="114"/>
       <c r="B242" s="33" t="s">
         <v>95</v>
       </c>
@@ -12163,7 +12166,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="112"/>
+      <c r="A243" s="114"/>
       <c r="B243" s="36"/>
       <c r="C243" s="14"/>
       <c r="D243" s="34" t="s">
@@ -12186,7 +12189,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="112"/>
+      <c r="A244" s="114"/>
       <c r="B244" s="36"/>
       <c r="C244" s="14"/>
       <c r="D244" s="34" t="s">
@@ -12209,7 +12212,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="112"/>
+      <c r="A245" s="114"/>
       <c r="B245" s="36"/>
       <c r="C245" s="19" t="s">
         <v>82</v>
@@ -12234,7 +12237,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="112"/>
+      <c r="A246" s="114"/>
       <c r="B246" s="36"/>
       <c r="C246" s="19" t="s">
         <v>83</v>
@@ -12259,7 +12262,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="112"/>
+      <c r="A247" s="114"/>
       <c r="B247" s="36"/>
       <c r="C247" s="19" t="s">
         <v>84</v>
@@ -12284,7 +12287,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="112"/>
+      <c r="A248" s="114"/>
       <c r="B248" s="36"/>
       <c r="C248" s="19" t="s">
         <v>85</v>
@@ -12309,7 +12312,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="112"/>
+      <c r="A249" s="114"/>
       <c r="B249" s="37" t="s">
         <v>121</v>
       </c>
@@ -12334,7 +12337,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="112"/>
+      <c r="A250" s="114"/>
       <c r="B250" s="40"/>
       <c r="C250" s="14"/>
       <c r="D250" s="38" t="s">
@@ -12357,7 +12360,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="112"/>
+      <c r="A251" s="114"/>
       <c r="B251" s="40"/>
       <c r="C251" s="14"/>
       <c r="D251" s="38" t="s">
@@ -12380,7 +12383,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="112"/>
+      <c r="A252" s="114"/>
       <c r="B252" s="40"/>
       <c r="C252" s="19" t="s">
         <v>82</v>
@@ -12405,7 +12408,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A253" s="112"/>
+      <c r="A253" s="114"/>
       <c r="B253" s="40"/>
       <c r="C253" s="19" t="s">
         <v>83</v>
@@ -12430,7 +12433,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="112"/>
+      <c r="A254" s="114"/>
       <c r="B254" s="40"/>
       <c r="C254" s="19" t="s">
         <v>84</v>
@@ -12455,7 +12458,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="112"/>
+      <c r="A255" s="114"/>
       <c r="B255" s="40"/>
       <c r="C255" s="19" t="s">
         <v>85</v>
@@ -12480,7 +12483,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" s="112"/>
+      <c r="A256" s="114"/>
       <c r="B256" s="33" t="s">
         <v>116</v>
       </c>
@@ -12505,7 +12508,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" s="112"/>
+      <c r="A257" s="114"/>
       <c r="B257" s="36"/>
       <c r="C257" s="14"/>
       <c r="D257" s="34" t="s">
@@ -12528,7 +12531,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" s="112"/>
+      <c r="A258" s="114"/>
       <c r="B258" s="36"/>
       <c r="C258" s="14"/>
       <c r="D258" s="34" t="s">
@@ -12551,7 +12554,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="112"/>
+      <c r="A259" s="114"/>
       <c r="B259" s="36"/>
       <c r="C259" s="19" t="s">
         <v>82</v>
@@ -12576,7 +12579,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" s="112"/>
+      <c r="A260" s="114"/>
       <c r="B260" s="36"/>
       <c r="C260" s="19" t="s">
         <v>83</v>
@@ -12601,7 +12604,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" s="112"/>
+      <c r="A261" s="114"/>
       <c r="B261" s="36"/>
       <c r="C261" s="19" t="s">
         <v>84</v>
@@ -12626,7 +12629,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" s="112"/>
+      <c r="A262" s="114"/>
       <c r="B262" s="36"/>
       <c r="C262" s="19" t="s">
         <v>85</v>
@@ -12651,7 +12654,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A263" s="112"/>
+      <c r="A263" s="114"/>
       <c r="B263" s="37" t="s">
         <v>117</v>
       </c>
@@ -12676,7 +12679,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="112"/>
+      <c r="A264" s="114"/>
       <c r="B264" s="40"/>
       <c r="C264" s="14"/>
       <c r="D264" s="38" t="s">
@@ -12699,7 +12702,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A265" s="112"/>
+      <c r="A265" s="114"/>
       <c r="B265" s="40"/>
       <c r="C265" s="14"/>
       <c r="D265" s="38" t="s">
@@ -12722,7 +12725,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A266" s="112"/>
+      <c r="A266" s="114"/>
       <c r="B266" s="40"/>
       <c r="C266" s="19" t="s">
         <v>82</v>
@@ -12747,7 +12750,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A267" s="112"/>
+      <c r="A267" s="114"/>
       <c r="B267" s="40"/>
       <c r="C267" s="19" t="s">
         <v>83</v>
@@ -12772,7 +12775,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A268" s="112"/>
+      <c r="A268" s="114"/>
       <c r="B268" s="40"/>
       <c r="C268" s="19" t="s">
         <v>84</v>
@@ -12797,7 +12800,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A269" s="112"/>
+      <c r="A269" s="114"/>
       <c r="B269" s="40"/>
       <c r="C269" s="19" t="s">
         <v>85</v>
@@ -12822,7 +12825,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A270" s="112"/>
+      <c r="A270" s="114"/>
       <c r="B270" s="33" t="s">
         <v>119</v>
       </c>
@@ -12847,7 +12850,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="112"/>
+      <c r="A271" s="114"/>
       <c r="B271" s="36"/>
       <c r="C271" s="14"/>
       <c r="D271" s="34" t="s">
@@ -12870,7 +12873,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A272" s="112"/>
+      <c r="A272" s="114"/>
       <c r="B272" s="36"/>
       <c r="C272" s="14"/>
       <c r="D272" s="34" t="s">
@@ -12893,7 +12896,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A273" s="112"/>
+      <c r="A273" s="114"/>
       <c r="B273" s="36"/>
       <c r="C273" s="19" t="s">
         <v>82</v>
@@ -12918,7 +12921,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A274" s="112"/>
+      <c r="A274" s="114"/>
       <c r="B274" s="36"/>
       <c r="C274" s="19" t="s">
         <v>83</v>
@@ -12943,7 +12946,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275" s="112"/>
+      <c r="A275" s="114"/>
       <c r="B275" s="36"/>
       <c r="C275" s="19" t="s">
         <v>84</v>
@@ -12968,7 +12971,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276" s="112"/>
+      <c r="A276" s="114"/>
       <c r="B276" s="36"/>
       <c r="C276" s="19" t="s">
         <v>85</v>
@@ -12993,7 +12996,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277" s="112"/>
+      <c r="A277" s="114"/>
       <c r="B277" s="37" t="s">
         <v>120</v>
       </c>
@@ -13018,7 +13021,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" s="112"/>
+      <c r="A278" s="114"/>
       <c r="B278" s="40"/>
       <c r="C278" s="14"/>
       <c r="D278" s="38" t="s">
@@ -13041,7 +13044,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A279" s="112"/>
+      <c r="A279" s="114"/>
       <c r="B279" s="40"/>
       <c r="C279" s="14"/>
       <c r="D279" s="38" t="s">
@@ -13064,7 +13067,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280" s="112"/>
+      <c r="A280" s="114"/>
       <c r="B280" s="40"/>
       <c r="C280" s="19" t="s">
         <v>82</v>
@@ -13089,7 +13092,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="112"/>
+      <c r="A281" s="114"/>
       <c r="B281" s="40"/>
       <c r="C281" s="19" t="s">
         <v>83</v>
@@ -13114,7 +13117,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A282" s="112"/>
+      <c r="A282" s="114"/>
       <c r="B282" s="40"/>
       <c r="C282" s="19" t="s">
         <v>84</v>
@@ -13139,7 +13142,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A283" s="112"/>
+      <c r="A283" s="114"/>
       <c r="B283" s="40"/>
       <c r="C283" s="19" t="s">
         <v>85</v>
@@ -13164,7 +13167,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A284" s="112"/>
+      <c r="A284" s="114"/>
       <c r="B284" s="33" t="s">
         <v>123</v>
       </c>
@@ -13189,7 +13192,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A285" s="112"/>
+      <c r="A285" s="114"/>
       <c r="B285" s="36"/>
       <c r="C285" s="14"/>
       <c r="D285" s="34" t="s">
@@ -13212,7 +13215,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A286" s="112"/>
+      <c r="A286" s="114"/>
       <c r="B286" s="36"/>
       <c r="C286" s="14"/>
       <c r="D286" s="34" t="s">
@@ -13235,7 +13238,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="112"/>
+      <c r="A287" s="114"/>
       <c r="B287" s="36"/>
       <c r="C287" s="19" t="s">
         <v>82</v>
@@ -13260,7 +13263,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="112"/>
+      <c r="A288" s="114"/>
       <c r="B288" s="36"/>
       <c r="C288" s="19" t="s">
         <v>83</v>
@@ -13285,7 +13288,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="112"/>
+      <c r="A289" s="114"/>
       <c r="B289" s="36"/>
       <c r="C289" s="19" t="s">
         <v>84</v>
@@ -13310,7 +13313,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="112"/>
+      <c r="A290" s="114"/>
       <c r="B290" s="36"/>
       <c r="C290" s="19" t="s">
         <v>85</v>
@@ -13335,7 +13338,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="112"/>
+      <c r="A291" s="114"/>
       <c r="B291" s="37" t="s">
         <v>128</v>
       </c>
@@ -13360,7 +13363,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="112"/>
+      <c r="A292" s="114"/>
       <c r="B292" s="40"/>
       <c r="C292" s="14"/>
       <c r="D292" s="38" t="s">
@@ -13383,7 +13386,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="112"/>
+      <c r="A293" s="114"/>
       <c r="B293" s="40"/>
       <c r="C293" s="14"/>
       <c r="D293" s="38" t="s">
@@ -13406,7 +13409,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="112"/>
+      <c r="A294" s="114"/>
       <c r="B294" s="40"/>
       <c r="C294" s="19" t="s">
         <v>82</v>
@@ -13431,7 +13434,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A295" s="112"/>
+      <c r="A295" s="114"/>
       <c r="B295" s="40"/>
       <c r="C295" s="19" t="s">
         <v>83</v>
@@ -13456,7 +13459,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="112"/>
+      <c r="A296" s="114"/>
       <c r="B296" s="40"/>
       <c r="C296" s="19" t="s">
         <v>84</v>
@@ -13481,7 +13484,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="112"/>
+      <c r="A297" s="114"/>
       <c r="B297" s="40"/>
       <c r="C297" s="19" t="s">
         <v>85</v>
@@ -13506,7 +13509,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="105" t="s">
+      <c r="A298" s="107" t="s">
         <v>133</v>
       </c>
       <c r="B298" s="22" t="s">
@@ -13533,7 +13536,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A299" s="106"/>
+      <c r="A299" s="108"/>
       <c r="B299" s="25"/>
       <c r="C299" s="14"/>
       <c r="D299" s="23" t="s">
@@ -13556,7 +13559,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="106"/>
+      <c r="A300" s="108"/>
       <c r="B300" s="25"/>
       <c r="C300" s="14"/>
       <c r="D300" s="23" t="s">
@@ -13579,7 +13582,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="106"/>
+      <c r="A301" s="108"/>
       <c r="B301" s="25"/>
       <c r="C301" s="19" t="s">
         <v>82</v>
@@ -13604,7 +13607,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="106"/>
+      <c r="A302" s="108"/>
       <c r="B302" s="25"/>
       <c r="C302" s="19" t="s">
         <v>83</v>
@@ -13629,7 +13632,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="106"/>
+      <c r="A303" s="108"/>
       <c r="B303" s="25"/>
       <c r="C303" s="19" t="s">
         <v>84</v>
@@ -13654,7 +13657,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="106"/>
+      <c r="A304" s="108"/>
       <c r="B304" s="25"/>
       <c r="C304" s="19" t="s">
         <v>85</v>
@@ -13679,7 +13682,7 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A305" s="106"/>
+      <c r="A305" s="108"/>
       <c r="B305" s="27" t="s">
         <v>124</v>
       </c>
@@ -13704,7 +13707,7 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A306" s="106"/>
+      <c r="A306" s="108"/>
       <c r="B306" s="31"/>
       <c r="C306" s="14"/>
       <c r="D306" s="28" t="s">
@@ -13727,7 +13730,7 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A307" s="106"/>
+      <c r="A307" s="108"/>
       <c r="B307" s="31"/>
       <c r="C307" s="14"/>
       <c r="D307" s="28" t="s">
@@ -13750,7 +13753,7 @@
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A308" s="106"/>
+      <c r="A308" s="108"/>
       <c r="B308" s="31"/>
       <c r="C308" s="19" t="s">
         <v>82</v>
@@ -13775,7 +13778,7 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A309" s="106"/>
+      <c r="A309" s="108"/>
       <c r="B309" s="31"/>
       <c r="C309" s="19" t="s">
         <v>83</v>
@@ -13800,7 +13803,7 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A310" s="106"/>
+      <c r="A310" s="108"/>
       <c r="B310" s="31"/>
       <c r="C310" s="19" t="s">
         <v>84</v>
@@ -13825,7 +13828,7 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A311" s="106"/>
+      <c r="A311" s="108"/>
       <c r="B311" s="31"/>
       <c r="C311" s="19" t="s">
         <v>85</v>
